--- a/dataWeb2.xlsx
+++ b/dataWeb2.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Python\python_learning\Crawl_web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F075D3-DB24-4A27-8776-9083067FCD70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -31,155 +25,161 @@
     <t>content</t>
   </si>
   <si>
-    <t>/vn/kinh-doanh/dau-tu/</t>
-  </si>
-  <si>
-    <t>/vn/kinh-doanh/tai-chinh/</t>
-  </si>
-  <si>
-    <t>/vn/kinh-doanh/</t>
-  </si>
-  <si>
-    <t>/vn/kinh-doanh/thi-truong/</t>
-  </si>
-  <si>
-    <t>/vn/kinh-doanh/tu-van-tai-chinh/</t>
-  </si>
-  <si>
-    <t>/vn/kinh-doanh/doanh-nhan/</t>
-  </si>
-  <si>
-    <t>Đề xuất giảm 30% giá, có nên đầu tư lắp điện mặt trời áp mái?</t>
-  </si>
-  <si>
-    <t>Hết đường tạo sóng, Bitcoin đuối dần, trôi về đáy</t>
-  </si>
-  <si>
-    <t>Vàng tăng đều, dự báo đáng sợ, vượt xa 60 triệu đồng/lượng</t>
-  </si>
-  <si>
-    <t>Giá vàng hôm nay 28/5: Vững bước, hướng lên ngưỡng 57 triệu</t>
-  </si>
-  <si>
-    <t>Lộ thông tin tài khoản Hoài Linh: MB xử lý nhân viên vi phạm nghiêm trọng</t>
-  </si>
-  <si>
-    <t>70% người trưởng thành ở Việt Nam dùng dịch vụ ngân hàng</t>
-  </si>
-  <si>
-    <t>Quỹ tỷ USD mua vắc xin Covid-19: Lập tài khoản để người dân đóng góp</t>
-  </si>
-  <si>
-    <t>Loại cây xưa dùng cho gia súc ăn nay giúp dân buôn hốt bạc vì trở thành món ăn lạ được người thành phố săn lùng</t>
-  </si>
-  <si>
-    <t>Hai số phận của xoài: Nam ế rụng đầy vườn, Bắc đắt hàng giá cao</t>
-  </si>
-  <si>
-    <t>Truy kẻ loan tin vải thiều bị ép giá 2.000 đồng/kg</t>
-  </si>
-  <si>
-    <t>Bay thẳng qua Nhật, vải thiều Việt Nam lên kệ siêu thị 500 nghìn/kg</t>
-  </si>
-  <si>
-    <t>Quyết định mới, giá xăng dầu gây bất ngờ toàn thị trường</t>
-  </si>
-  <si>
-    <t>Choáng ngợp với những bộ bàn ghế kỳ lân tiền tỷ</t>
-  </si>
-  <si>
-    <t>Đủ tuổi hưu, có được đóng tiếp BHXH để hưởng lương hưu tối đa?</t>
-  </si>
-  <si>
-    <t>Đầu tư gì với 14 tỷ đồng để thu lãi cao nhất trong 6 tháng qua?</t>
-  </si>
-  <si>
-    <t>Ở nhà thuê 10 triệu/tháng, vợ chồng trẻ vẫn mơ mua biệt thự 10 tỷ</t>
-  </si>
-  <si>
-    <t>Cắt bỏ hàng ngàn dự án, tăng tiền thêm gần triệu tỷ đồng</t>
-  </si>
-  <si>
-    <t>Xoay xở để đứng vững, cùng góp tay chống đại dịch</t>
-  </si>
-  <si>
-    <t>Khối tài sản 'khủng' của vợ chồng bà Nguyễn Phương Hằng, ông Huỳnh Uy Dũng</t>
-  </si>
-  <si>
-    <t>Tỷ phú Jeff Bezos sẽ từ chức CEO Amazon vào đầu tháng 7</t>
-  </si>
-  <si>
-    <t>Công ty vợ chồng bà Nguyễn Phương Hằng nộp hơn 1.000 tỷ tiền thuế đất</t>
-  </si>
-  <si>
-    <t>Tại dự thảo mới nhất liên quan đến cơ chế giá mua bán điện mặt trời áp mái thay thế Quyết định 13 của Thủ tướng Chính phủ đã hết hiệu lực vào cuối năm ngoái, Bộ Công thương đề xuất giá bán điện sẽ giảm xuống 30% so với trước đây, tức là từ hơn 1.900 đồng xuống chỉ còn khoảng 1.300 đồng cho mỗi số điện. Mức giá này này liệu có còn đủ hấp dẫn các nhà đầu tư tham gia phát triển loại hình năng lượng tái tạo này?Từ khi có điện mặt trời áp mái và bán được với giá 1.900 đồng/số điện, năm ngoái hầu như gia đình ông Xuyên (Hoài Đức) không phải trả thêm tiền điện hàng tháng. Với mục đích đầu tư chủ yếu để sử dụng cho nhu cầu của gia đình, ông Xuyên tính toán, nếu giá bán điện giảm khoảng 30%, mỗi tháng ông sẽ phải đóng thêm khoảng 300.000 - 400.000 đồng là mức có thể chấp nhận được. Quan trọng hơn là sớm được mua điện trở lại sau gần nửa năm nay tạm dừng.</t>
-  </si>
-  <si>
-    <t>Dữ liệu của CoinDesk cho biết, vào lúc 8h18' sáng nay (giờ Việt Nam), giá đồng tiền kỹ thuật số lớn nhất thế giới Bitcoin được giao dịch ở mức 37.949,01 USD, giảm 1,01% so với ngày hôm qua. Trong 24 giờ qua, giá Bitcoin không ngừng biến động, thời điểm cao nhất đạt mức 40.430,21 USD nhưng có thời điểm lại rơi xuống mức thấp nhấp là 37.233,69 USD.Dữ liệu thống kê của Coinmarketcap cho thấy, khối lượng giao dịch Bitcoin trong khoảng 24 giờ qua là hơn 42 tỷ USD, vốn hóa của thị trường Bitcoin ghi nhận ở mức hơn 710 tỷ USD.</t>
-  </si>
-  <si>
-    <t>Trở lại xu hướng tăngGiá vàng trên thị trường thế giới trong vài phiên gần đây liên tục tăng mạnh và vượt lên trên ngưỡng 1.900 USD/ounce lần đầu tiên kể từ đầu năm 2021, trong bối cảnh đồng USD yếu, ở vùng đáy nhiều tháng và thị trường tiền kỹ thuật số hỗn loạn, trải qua một đợt giảm hiếm có trong lịch sử, bốc hơi cả nghìn tỷ USD.</t>
-  </si>
-  <si>
-    <t>Giá vàng trong nướcTính tới 8h30 sáng 28/5, giá vàng miếng trong nước được Tập Đoàn Vàng bạc đá quý Doji niêm yết cho khu vực Hà Nội ở mức: 56,10 triệu đồng/lượng (mua vào) và 56,48 triệu đồng/lượng (bán ra).</t>
-  </si>
-  <si>
-    <t>Mấy ngày vừa qua, sự việc phát tán lên mạng xã hội sao kê giao dịch tài khoản của nghệ sĩ Hoài Linh (tên đầy đủ là Võ Nguyễn Hoài Linh) trong công tác từ thiện được dư luận quan tâm. Vụ việc này được cho là do nhân viên của Ngân hàng Quân đội (MB) đăng tải.Liên quan đến vụ việc này, Ngân hàng MB cho biết, sau khi có thông tin từ dư luận phản ánh việc tài khoản của nghệ sĩ Hoài Linh bị phát tán trên mạng xã hội được cho là mở tại MB, Ngân hàng đã kiểm tra và xác minh sự việc. Và MB đã phát hiện một cá nhân làm việc tại Ngân hàng để lộ lọt thông tin của khách hàng. Cá nhân này đã vi phạm nghiêm trọng quy định của Ngân hàng.</t>
-  </si>
-  <si>
-    <t>Theo thống kê của Ngân hàng Nhà nước vào năm 2020, 70% người trưởng thành ở Việt Nam có tài khoản ngân hàng nhưng gần một nửa trong số đó không tiếp cận được với tín dụng. Còn theo Agribank, hơn 70% dân số tập trung ở khu vực nông thôn nhưng tỷ lệ tiếp cận dịch vụ ngân hàng hiện đại của khu vực này là rất hạn chế.Khảo sát mới đây của hệ thống dịch vụ công nghệ tài chính – ngân hàng Mambu cho thấy, nhu cầu gia tăng nhận thức và hiểu biết về các dịch vụ tài chính của khách hàng đang gia tăng trên toàn cầu. Và Việt Nam - nền kinh tế mới nổi - cũng không là ngoại lệ.</t>
-  </si>
-  <si>
-    <t>Chiều 27/5, ông Võ Thành Hưng, Vụ trưởng Vụ Ngân sách nhà nước (Bộ Tài chính) đã có những chia sẻ xung quanh việc thành lập Quỹ vắc xin phòng Covid-19.Ông Hưng cho biết thực hiện kết luận của Bộ Chính trị, Ban Bí thư Trung ương Đảng về chủ trương mua vắc xin phòng Covid-19 cho nhân dân từ nguồn ngân sách nhà nước (NSNN) và các nguồn tài chính hợp pháp khác,</t>
-  </si>
-  <si>
-    <t>Nụ hoa gừng không phải ai cũng biết, bởi đây vốn dĩ là loại cây mọc trong rừng và là món ăn của người vùng cao. Búp hoa gừng chỉ to bằng ngón tay cái và phần cuống dài khoảng 10-15cm, màu xanh đậm mà nếu nhìn qua bạn sẽ dễ nhầm đây là mầm non của cây tre hoặc măng tây. Khi bóc tách lớp vỏ xơ bên ngoài, hương gừng thơm dịu còn lưu mãi.Theo một người bán, nụ hoa gừng hay còn gọi là hoa gừng rừng được người vùng cao hái về. Vì thế, nhiều người trồng gừng ở dưới xuôi có thể sẽ không thấy bao giờ.</t>
-  </si>
-  <si>
-    <t>Không còn thu được hàng trăm triệu đồng trên 1ha như những năm trước, dịp này người dân ở “thủ phủ” xoài Cam Lâm (Khánh Hòa) ôm nỗi buồn xoài Úc đến mùa thu hoạch, chín đỏ ngoài vườn nhưng giá rẻ bèo vẫn không có người mua.Người trồng xoài Úc ở Cam Lâm cho biết, những năm trước, xoài Úc có giá bán từ 20.000-30.000 đồng/kg, còn hiện tại, giá xoài giảm xuống 3.000-4.000 đồng/kg. Với mức giá này, nhiều nhà vườn chịu cảnh thua lỗ nặng bởi tiền bán xoài không đủ trả tiền công thu hái.  </t>
-  </si>
-  <si>
-    <t>Mới đây, trên mạng xã hội xôn xao thông tin khi 1 tài khoản facebook có tên M.L đăng tải thông tin vải thiều của mình bị ép giá xuống 2.000 đồng/kg. Theo thông tin tài khoản này đăng tải, ngày hôm nay có chở một chuyến vải đi bán tại chợ. Lợi dụng lúc trưa ế hàng, điểm cân đối diện bờ sông Kim (thuộc khu vực Phượng Sơn, Lục Ngạn, Bắc Giang) trả giá 8.000 đồng/kg, sau đó ép xuống còn giá 6.000 đồng/kg. Đến lúc xếp hàng và tới lượt cân vải thì điểm mua này chốt giá 2.000 đồng/kg.</t>
-  </si>
-  <si>
-    <t>Thông tin với PV. VietNamNet, ông Nguyễn Văn Thọ, Phó giám đốc Trung tâm Khuyến công và Xúc tiến thương mại Bắc Giang cho biết, ngày 27/5, vải thiều sớm Tân Yên chính thức lên kệ siêu thị Nhật Bản. Loại quả đặc sản này của Việt Nam được đóng trong hộp và bán với giá dao động từ 350.000-500.000 đồng/kg. Đây là mức giá rất cao so với giá vải tại thị trường trong nước.</t>
-  </si>
-  <si>
-    <t>Tại kỳ điều hành này, liên Bộ tiếp tục chi mạnh Quỹ bình ổn giá xăng dầu, qua đó giá xăng dầu được giữ nguyên so với kỳ trước.Cụ thể, giá xăng E5RON92 không cao hơn 18.426 đồng/lít (ổn định so với giá hiện hành, nếu kỳ điều hành này không chi Quỹ BOG 1.782 đồng/lít thì giá sẽ tăng 1.782 đồng/lít và giá bán là 20.208 đồng/lít).</t>
-  </si>
-  <si>
-    <t>Bộ bàn ghế kỳ lân này được một công ty nội thất tiêu tốn thời gian 2 năm để chế tác. Ngoài ra, họ cũng phải bỏ ra 2 năm để thu mua nguyên liệu. Bộ bàn ghế có tổng trọng lượng gần 7 tấn, được chế tác từ hơn 10 khối gỗ mun sọc và có kích thước khổ gỗ lớn nhất. Đây cũng là một trong những bộ bàn ghế gỗ mun sọc có kích thước lớn nhất từ trước đến nay trong ngành nội thất Việt Nam.</t>
-  </si>
-  <si>
-    <t>Bà Yến hỏi có được đóng tiếp BHXH để được mức lương hưu như trên không? Bà vẫn đi làm, công ty vẫn đóng tiếp BHXH cho bà có được không?Về vấn đề này, Bảo hiểm xã hội Việt Nam trả lời như sau:</t>
-  </si>
-  <si>
-    <t>Theo số liệu của Ngân hàng Nhà nước, hiện mặt bằng lãi suất huy động tiền gửi bằng VNĐ phổ biến ở mức 0,1-0,2%/năm đối với tiền gửi không kỳ hạn và có kỳ hạn dưới một tháng.Trong khi đó, mức tiền gửi có kỳ hạn từ một tháng đến dưới 6 tháng hưởng lãi suất 3,1-3,8%/năm; tiền gửi từ 6 tháng đến dưới 12 tháng có mức lãi suất trung bình 4-6%/năm; và tiền gửi kỳ hạn 12 tháng trở lên ở mức 5,6-6,8%/năm.</t>
-  </si>
-  <si>
-    <t>Lý do vợ chồng này đưa ra là: Thứ nhất, nếu dốc hết tiền mua nhà, anh chị sẽ không còn vốn làm ăn; thứ 2, với dòng tiền 2 tỷ đồng, vợ chồng anh chị khó mua được nhà mặt đất đẹp đúng như mong muốn.Cưới nhau năm 2016, vợ chồng anh Nam chị Hằng ở Thanh Xuân, Hà Nội được bố mẹ chồng chia cho một mảnh đất rộng 35m2 để xây nhà ở. Tuy nhiên, thấy vị trí mảnh đất ở trong hẻm, ô tô không vào được nên sau khi cân nhắc, anh chị quyết định bán với giá 2 tỷ đồng, lấy vốn làm ăn để sau có cơ hội mua nhà lớn hơn. Tạm thời trước mắt, anh chị chấp nhận đi thuê trọ.</t>
-  </si>
-  <si>
-    <t>Hạn chế dàn trảiTheo tờ trình đánh giá kết quả thực hiện kế hoạch đầu tư công trung hạn giai đoạn 2016-2020 và dự kiến kế hoạch giai đoạn 2021-2025 được Bộ Kế hoạch và đầu tư (KH-ĐT) gửi tới Thủ tướng, tổng vốn ngân sách nhà nước đầu tư công trung hạn 2021-2025 là 2,75 triệu tỷ đồng, tăng 37,5% so với giai đoạn trước (giai đoạn 2016-2020, Quốc hội duyệt tổng mức vốn là 2 triệu tỷ đồng). Song, hiện nay tổng số vốn Bộ này thông báo để các bộ, cơ quan xây dựng phương án phân bổ chi tiết là hơn 2,24 triệu tỷ đồng.</t>
-  </si>
-  <si>
-    <t>Thực‌ ‌tế‌ ‌cho‌ ‌thấy,‌ ‌không‌ ‌phải‌ ‌đến‌ ‌thời‌ ‌điểm‌ ‌hiện‌ ‌tại,‌ ‌mà‌ ‌trong‌ ‌suốt‌ ‌4‌ ‌đợt‌ ‌dịch‌ ‌bùng‌ ‌phát‌ ‌tại‌ Việt‌ ‌Nam,‌ ‌nhiều‌ ‌tập‌ ‌đoàn‌ ‌lớn‌ ‌đã‌ ‌không‌ ‌ngừng‌ ‌sát‌ ‌cánh‌ ‌cùng‌ ‌cả‌ ‌nước‌ ‌chống‌ ‌dịch ‌trên‌ ‌tinh‌ ‌thần‌ ‌chấp‌ ‌nhận‌ ‌hy‌ ‌sinh‌ ‌về‌ ‌doanh‌ ‌thu,‌ ‌lợi‌ ‌nhuận‌ ‌để‌ ‌chung‌ ‌sức‌ ‌vượt‌ ‌qua‌ ‌khó‌ ‌khăn‌ ‌cùng‌ ‌cộng‌ ‌đồng.‌ ‌‌“Sự‌ ‌hỗ‌ ‌trợ‌ ‌quý‌ ‌báu‌ ‌của‌ ‌các‌ ‌tập‌ ‌đoàn,‌ ‌doanh‌ ‌nghiệp‌ ‌thực‌ ‌sự‌ ‌hiệu‌ ‌quả,‌ ‌góp‌ ‌phần‌ ‌vào‌ ‌thành‌ ‌công‌ ‌cho‌ ‌cuộc‌ ‌chiến‌ ‌phòng‌ ‌chống‌ ‌dịch‌ ‌ở‌ ‌nước‌ ‌ta.‌ ‌Chúng‌ ‌tôi‌ ‌mong‌ ‌muốn‌ ‌các‌ ‌đơn‌ ‌vị‌ ‌tiếp‌ ‌tục‌ ‌ đồng‌ ‌hành‌ ‌với‌ ‌ngành‌ ‌y‌ ‌tế‌ ‌và‌ ‌cả‌ ‌nước‌ ‌trong‌ ‌cuộc‌ ‌chiến‌ ‌chống‌ ‌Covid-19”,‌ ‌Bộ‌ ‌trưởng‌ ‌Bộ‌ ‌Y‌ ‌tế‌ ‌Nguyễn‌ ‌Thanh‌ ‌Long‌ ‌nói.‌ ‌</t>
-  </si>
-  <si>
-    <t>CEO Nguyễn Phương Hằng đang là cái tên được nhắc nhiều nhất trên truyền thông và mạng xã hội những ngày gần đây, đặc biệt sau buổi livestream "khủng" thu hút tới hơn 400.000 lượt xem trực tiếp trên trang facebook cá nhân.Bên cạnh những nội dung phức tạp và kịch tính quanh vụ tố cáo ông Võ Hoàng Yên cũng như một số nghệ sĩ trong giới giải trí, bà Hằng còn khiến người xem sửng sốt khi khoe tài sản cực "khủng".</t>
-  </si>
-  <si>
-    <t>Tiếp quản vị trí này sẽ là Giám đốc điều hành của Amazon Web Services, ông Andy Jassy.Tại cuộc họp hội đồng cổ đông thường niên của Amazon ngày 26/5, tỷ phú Jeff Bezos cho biết: "Chúng tôi chọn ngày đó vì đó là ngày nhiều cảm xúc đối với tôi, ngày Amazon được thành lập vào năm 1994, chính xác là 27 năm trước".</t>
-  </si>
-  <si>
-    <t>Số liệu từ Cục Thuế tỉnh Bình Dương cho thấy từ năm 2014 đến 2020, tổng nguồn thu từ đất tại tỉnh Bình Dương đã tăng từ 1.652 tỷ đồng lên 8.078 tỷ, gấp 4,8 lần. Đặc biệt, nguồn thu tiền sử dụng đất phát sinh từ một số dự án lớn đã giúp tăng thu đột biến khoảng 4 lần (năm 2014 là 1.095 tỷ đồng, năm 2020 là 4.156 tỷ đồng).Điển hình như Công ty Cổ phần Đại Nam trong năm 2020 đã nộp tiền sử dụng đất 1.234 tỷ đồng. Công ty này do ông Huỳnh Uy Dũng (tức Dũng “lò vôi”) làm Chủ tịch Hội đồng quản trị kiêm Tổng giám đốc. Trong khi đó, bà Nguyễn Phương Hằng (vợ ông Dũng) đóng vai trò là Phó tổng giám đốc công ty.</t>
+    <t>['Thị trường']</t>
+  </si>
+  <si>
+    <t>['Tài chính']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Tư vấn']</t>
+  </si>
+  <si>
+    <t>['Đầu tư']</t>
+  </si>
+  <si>
+    <t>['Doanh nhân']</t>
+  </si>
+  <si>
+    <t>Cây cổ thụ nghìn quả đỏ hồng từ gốc tới ngọn: Đại gia xin mua, cụ chủ lắc đầu</t>
+  </si>
+  <si>
+    <t>Trung Quốc có động thái nhằm chặn đứng đà tăng của đồng Nhân dân tệ</t>
+  </si>
+  <si>
+    <t>Ồn ào chia tiền, tỷ phú nhận về két riêng gần 600 tỷ đồng</t>
+  </si>
+  <si>
+    <t>Cú rơi của tiền mã hóa là cơ hội để Ether vượt Bitcoin?</t>
+  </si>
+  <si>
+    <t>Bitcoin bật tăng, chạm mốc 38.000 USD</t>
+  </si>
+  <si>
+    <t>Tiền nhiều chưa từng có, ngày hiếm thấy của tỷ phú USD Việt Nam</t>
+  </si>
+  <si>
+    <t>Giá vàng hôm nay 1/6: Tăng vượt xa ngưỡng 57 triệu đồng</t>
+  </si>
+  <si>
+    <t>Ngồi Sài Gòn 'với tay' hái vải vườn Bắc Giang, chỉ 6 tiếng là ăn đồ tươi</t>
+  </si>
+  <si>
+    <t>Kiều hối về Việt Nam đứng trước nguy cơ sụt giảm do dịch Covid-19</t>
+  </si>
+  <si>
+    <t>Khởi tố, bắt giam hotgirl ‘hàng hiệu’ chuyên lừa đảo tiền đặt cọc</t>
+  </si>
+  <si>
+    <t>Giá gas bất ngờ tăng mạnh</t>
+  </si>
+  <si>
+    <t>Điều hòa Nhật Bản thống trị thị trường Việt Nam</t>
+  </si>
+  <si>
+    <t>Khóc ròng trên ruộng, 'vương quốc khoai lang' miền Tây kêu cứu</t>
+  </si>
+  <si>
+    <t>Quá thời hạn 3 tháng, có được hưởng trợ cấp thất nghiệp?</t>
+  </si>
+  <si>
+    <t>Đóng BHXH tự nguyện bao lâu thì có lương hưu?</t>
+  </si>
+  <si>
+    <t>Sai lầm ai cũng mắc phải khi dùng điều hòa khiến tiền điện tăng gấp 3 lần</t>
+  </si>
+  <si>
+    <t>Bộ KHĐT nói gì về công ty đăng ký thành lập với số vốn 21,7 tỷ USD?</t>
+  </si>
+  <si>
+    <t>Vốn đầu tư vào startup Việt giảm 48%</t>
+  </si>
+  <si>
+    <t>Ông chủ 36 tuổi lập công ty vốn điều lệ 'khủng' 500.000 tỷ đồng tại TP.HCM</t>
+  </si>
+  <si>
+    <t>Bí ẩn ông chủ 'siêu doanh nghiệp' 500 nghìn tỷ mới thành lập ở Sài Gòn</t>
+  </si>
+  <si>
+    <t>Bà Phương Hằng và những đại gia Việt thành danh dù chưa từng học đại học</t>
+  </si>
+  <si>
+    <t>Ôm 14 tỷ để trong tài khoản, quy ra sắt giờ đã lên tới 24 tỷ</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh đang vào mùa thu hoạch quả dâu da đất (tiếng địa phương ở Hà Tĩnh gọi là cây du da). Đây là loài cây ăn quả được trồng nhiều ở huyện miền núi. Mỗi cây dâu da có hàng nghìn quả, sai trĩu từ gốc đến ngọn, thể hiện sự sum suê, đầy đủ,... nên được nhiều người săn lùng mua về làm cảnh, với giá hàng chục triệu đồng.Bà Trần Thị Hòa (66 tuổi, trú xã Hà Linh) cho biết: “Gia đình tui có gốc cây du da cổ thụ. Nhiều người vào trả giá hàng chục triệu nhưng tui không bán. Họ thích cây du da vì nó sum suê, trông rất ấm áp. Nhưng tui không bán vì để chỗ cho con cháu lui về, và để cây sống trong vườn làm thú vui tuổi già”.</t>
+  </si>
+  <si>
+    <t>Thông báo của Ngân hàng Trung ương Trung Quốc (PBoC) cho biết, nhằm tăng cường quản lý thanh khoản ngoại hối, kể từ ngày 15/6, nước này sẽ nâng 2 điểm phần trăm tỷ lệ dự dữ trữ ngoại hối của các tổ chức tài chính, từ 5% lên 7%.Theo nhiều chuyên gia tài chính, đây là động thái nhằm chặn đứng đà tăng phi mã hiện nay của đồng Nhân dân tệ. Ông Quản Đào, chuyên gia thị trường chứng khoán Trung Quốc cho rằng, kể từ đầu năm đến nay, tiền gửi ngoại hối của các tổ chức tài chính đã tăng lên đáng kể. Thống kê cho thấy, số dư tiền gửi ngoại hối của các tổ chức tài chính cho đến cuối tháng 4/2021 vào khoảng 1.000 tỷ USD, do đó, việc tăng 2% tỷ lệ dự trữ ngoại hối sẽ khiến đóng băng khoảng 20 tỷ USD thanh khoản ngoại hối, điều này sẽ góp phần thắt chặt thanh khoản, nâng cao lãi suất ngoại tệ, thúc đẩy sự cân bằng thị trường ngoại hối trong nước.</t>
+  </si>
+  <si>
+    <t>CTCP Tập đoàn Masan - Masan Group (MSN) cho biết sẽ chi tạm ứng 1.175 tỷ trả cổ tức bằng tiền mặt tỷ lệ 10% (tương đương mỗi cổ đông sẽ nhận về 1.000 đồng/cp). Cụ thể, Masan sẽ chia làm 2 đợt tạm ứng cổ tức với lần lượt tỷ lệ 9,5% (950 đồng/cp) và tỷ lệ 0,5% (50 đồng/cp).Trước đó, Masan đã chia cổ tức năm 2015 và tạm ứng cổ tức năm 2016 tổng tỷ lệ 30% và chia cổ tức năm 2019 với tỷ lệ 10%. Trong năm 2020, dù ghi nhận kết quả kinh doanh ấn tượng nhưng Masan quyết định trình phương án không chia cổ tức.</t>
+  </si>
+  <si>
+    <t>Đà tăng phi mã của các thị trường tiền mã hóa đã bị triệt tiêu trong vòng một tháng qua. Theo dữ liệu của Coin Desk hôm 31/5, Bitcoin - đồng tiền mã hóa lớn nhất thế giới - được giao dịch quanh ngưỡng giá 37.000 USD/đồng, giảm 43% so với mức đỉnh gần 65.000 USD/đồng thiết lập hôm 14/4.Trong khi đó, Ether - đồng tiền mã hóa lớn thứ hai thế giới - chứng kiến mức sụt giá 40% từ mức đỉnh 4.382 USD/đồng xuống hơn 2.600 USD/đồng.</t>
+  </si>
+  <si>
+    <t>Dữ liệu của CoinDesk vào 7h34' sáng nay (giờ Việt Nam) cho thấy, giá đồng tiền ảo Bitcoin được giao dịch ở mức 37.671,10 USD, tăng 6,46 % so với ngày hôm qua. Trong 24 giờ qua, giá Bitcoin thời điểm cao nhất đạt 37.752 USD, giao dịch thấp nhất ở mức 34.221,85 USD. Còn theo thống kê của Coinmarketcap, khối lượng giao dịch Bitcoin trong khoảng 24 giờ qua là gần 39,3 tỷ USD, vốn hóa của thị trường Bitcoin ghi nhận ở mức hơn 704 tỷ USD. Đà tăng mạnh mẽ của Bitcoin kéo theo nhiều đồng tiền điện tử khác cũng phục hồi một cách đầy ngoạn mục.Cụ thể, Ethereum tăng 15,74% lên mức giá 2.728 USD; Bitcoin Cash tăng 9,26%, có giá 717 USD; Cardano tăng 13,73%, lên 1,78 USD; Litecoin tăng 14,12%, lên mức giá 192 USD; Monero tăng 7,04%, có giá 274 USD; Stellar tăng 9,92%, lên mức giá 0,411 USD; Dogecoin tăng 9,05%, ở mức giá 0,327 USD; Polkadot tăng 14,03% lên 23,24 USD... Nhờ sự tăng trưởng mạnh mẽ của các tiền mã hóa hàng đầu đã đẩy tổng vốn hóa toàn thị trường lên cao. Tổng giá trị vốn hóa thị trường tiền mã hóa vào đầu giờ sáng nay (1/6) đạt ngưỡng 1.670 tỷ USD, tương đương tăng 9,62% so với ngày hôm qua. Hai tuần vừa qua là những ngày kinh hoàng đối với nhiều nhà đầu tư tiền mã hóa, khi Bitcoin và nhiều đồng tiền kỹ thuật số khác có sự biến động giá dữ dội. Thị trường tiền mã hóa chao đảo bắt nguồn từ hàng loạt thông tin bất lợi với giới đầu tư. Trước cơn biến động giá dữ dội của Bitcoin, nhiều nhà đầu tư tỏ ra hoang mang, hoảng sợ và quyết định bán tháo. Trong khi đó nhiều nhà đầu tư có kinh nghiệm lại coi đây là một cơ hội tốt để bỏ vốn hòng bắt đáy khi thấy Bitcoin giảm giá sâu. Nhiều quỹ đầu tư lớn đang thu mua Bitcoin với số lượng lớn. Theo Bloomberg, mặc dù chính quyền Trung Quốc liên tục thực hiện các biện pháp nhằm siết chặt thị trường tiền mã hóa nhưng nhiều nhà đầu tư nước này vẫn đổ tiền vào Bitcoin hay Ether. Mấy ngày gần đây, giá Bitcoin có dấu hiệu phục hồi sau chuỗi ngày lao dốc không phanh. Qua đây có thể thấy tâm lý nhiều nhà đầu tư vẫn rất lạc quan về tương lai tiền ảo. Có dự báo cho rằng trong tương lai gần, giá Bitcoin có thể đạt ngưỡng tới 100.000 USD. Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Dòng tiền ồ ạt đổ vàoThị trường chứng khoán Việt Nam ghi nhận thêm một kỷ lục mới về giao dịch. Sau khi đạt mức cao chưa từng có hơn 28 nghìn tỷ đồng cuối tuần trước, trong phiên cuối tháng 5 cả 3 sàn chứng khoán ghi nhận một kỷ lục mới: hơn 32 nghìn tỷ đồng giá trị cổ phiếu được chuyển nhượng. Trong đó, hơn 30 nghìn tỷ đồng giao dịch qua khớp lệnh.</t>
+  </si>
+  <si>
+    <t>Giá vàng trong nướcTính tới 8h30 sáng 1/6, giá vàng miếng trong nước được Tập Đoàn Vàng bạc đá quý Doji niêm yết cho khu vực Hà Nội ở mức: 56,55 triệu đồng/lượng (mua vào) và 57,25 triệu đồng/lượng (bán ra).</t>
+  </si>
+  <si>
+    <t>Hải Dương và Bắc Giang là hai tỉnh đang có vải thiều vào mùa thu hoạch.Theo báo cáo của UBND tỉnh Bắc Giang, niên vụ vải năm 2021, toàn tỉnh có 28.100 ha trồng vải thiều, sản lượng ước đạt 180.000 tấn, tăng 15.000 tấn so với năm trước và bắt đầu thu hoạch chính vụ từ ngày 10/6-20/7.Những năm gần đây, 70% sản lượng vải Bắc Giang được xuất khẩu ra nước ngoài, đặc biệt là thị trường Trung Quốc. Tuy nhiên, trong bối cảnh dịch bệnh phức tạp như hiện nay, các thương nhân Trung Quốc không thể nhập cảnh vào vùng vải để thu mua khiến cho vải Bắc Giang có thể rơi vào tình trạng ứ đọng, khó tìm đầu ra.</t>
+  </si>
+  <si>
+    <t>Theo dữ liệu từ Hiệp hội xuất khẩu lao động Việt Nam (VAMAS), trong 3 tháng đầu năm 2021, 10.333 lao động Việt Nam đã tới Đài Loan (Trung Quốc) và 18.178 người đến Nhật Bản.Việt Nam đã đặt mục tiêu đến năm 2025, sẽ có khoảng 500.000 lao động đi làm việc ở nước ngoài. Song đến nay, giới chuyên gia nhận định con số này là 'quá cao', đặc biệt là trong bối cảnh dịch COVID-19 có diễn biến phức tạp.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, Diệp Anh không gửi hàng mà chiếm đoạt tiền của nạn nhân.Đầu tháng 5/2021, Cơ quan Cảnh sát điều tra (CSĐT) Công an tỉnh Sơn La đã ra quyết định khởi tố vụ án, bắt tạm giam 2 đối tượng sử dụng công nghệ cao để lừa đảo chiếm đoạt tài sản và cưỡng đoạt tài sản.</t>
+  </si>
+  <si>
+    <t>Theo thông báo của Công ty Cổ phần thương mại xuất nhập khẩu dầu khí Thái Bình Dương, từ ngày 1/6, giá các sản phẩm gas bán lẻ của doanh nghiệp này sẽ tăng 1.167 đồng/kg, tương ứng 14.000 đồng/bình 12kg và 58.000 đồng/bình 50kg. Mức tăng này khiến giá gas bán lẻ tăng lên 398.000 đồng.   Cùng xu hướng, Công ty Cổ phần kinh doanh LPG Việt Nam tại miền Nam cũng cho biết giá bán bình PetroVietNam Gas tăng 14.000 đồng/bình 12kg và 52.515 đồng/bình 45kg so với tháng 5. Theo đó, mức giá bán lẻ đến người tiêu dùng 374.400 đồng/bình gas 12kg.Còn Công ty TNHH MTV Dầu khí TP.HCM (Saigon Petro) cũng cho hay, từ 1/6, giá bán lẻ gas của Công ty sẽ tăng 1.167 đồng/kg (đã VAT), tương đương 14.000 đồng/bình 12kg. Như vậy, mức giá bán lẻ tối đa đến tay người tiêu dùng là 375.000 đồng bình 12kg. Hiện giá gas bán lẻ bình 12 kg xoay quanh mức 375.000- 410.000 đồng/bình, tùy thương hiệu. Lý giải nguyên nhân vì sao giá gas tăng vọt, các đơn vị kinh doanh gas cho biết, do giá giao dịch gas trên thị trường thế giới vào tháng 6 đã tăng 42,5 USD tấn so với tháng 5, ở mức 527,5 USD/tấn. Do đó, các đơn vị kinh doanh gas trong nước phải điều chỉnh tăng giá gas bán lẻ.  Đây là lần thứ tư trong năm 2021, giá gas bán lẻ trong nước được điều chỉnh tăng với tổng mức tăng là 64.500 đồng/bình 12kg. Trước đó, trong 2 tháng 4 và 5, giá bán lẻ gas trong nước đã có hai lần giảm mạnh, với mức giảm gần 40.000 đồng với loại bình 12kg.Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Theo Research Market, có khoảng 112 triệu thiết bị điều hòa được bán ra trên toàn cầu năm 2020. Hiện thương hiệu Daikin của Nhật Bản là công ty đứng đầu ngành điều hòa toàn cầu, theo Bestac.in.Tại Việt Nam, thị trường điều hòa diễn ra sôi động khi có sự cạnh tranh mạnh mẽ từ nhiều thương hiệu như Daikin, Sharp, Toshiba, Panasonic, Samsung, LG, Aqua, Casper, Sunhouse, Asanzo...</t>
+  </si>
+  <si>
+    <t>Ngồi thất thần bên 10 công khoai lang tím Nhật đang tới kỳ thu hoạch, anh Tước (huyện Bình Tân) cho biết, năng suất khoai năm nay đạt khá. Mấy hôm nay, đến ngày thu hoạch khoai lang anh gọi cho thương lái quen nhưng đều bị từ chối.“Thậm chí, tôi năn nỉ nhưng họ lắc đầu từ chối mua. Cũng có người hứa đến mua nhưng rồi cũng biệt tăm. Giờ khoai vẫn neo ngoài ruộng vì thu hoạch không biết bán cho ai”, anh Tước nói.</t>
+  </si>
+  <si>
+    <t>Về vấn đề này Bảo hiểm xã hội Việt Nam trả lời như sau:Theo quy định tại Điều 49 Luật Việc làm số 38/2013/QH13 thì người lao động đang đóng bảo hiểm thất nghiệp được hưởng trợ cấp thất nghiệp khi có đủ các điều kiện sau đây:</t>
+  </si>
+  <si>
+    <t>Về vấn đề này, Bảo hiểm xã hội Việt Nam trả lời như sau:Theo quy định của pháp luật BHXH hiện hành, điều kiện về thời gian tham gia BHXH để tính hưởng lương hưu đối với người tham gia BHXH tự nguyện quy định tại Điều 73 Luật BHXH năm 2014 là có đủ 20 năm đóng BHXH trở lên, trường hợp người lao động đã đủ điều kiện về tuổi nhưng thời gian đóng BHXH chưa đủ 20 năm thì được đóng cho đến khi đủ 20 năm để hưởng lương hưu.</t>
+  </si>
+  <si>
+    <t>Chọn sai chế độ Trên bảng điều khiển máy lạnh, chế độ thường được lựa chọn là Tự động (Auto), một số điều khiển có chế độ đặc thù như làm mát (Cool), làm khô (Dry), chế độ quạt (Fan)... Sử dụng sai chế độ là một trong những nguyên nhân khiến máy lạnh không làm đúng mục đích gây tăng tiền điện.</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Tập đoàn Đầu tư Công nghệ Tự động Toàn cầu (Auto Investment Group) vừa đăng ký thành lập với số vốn 500.000 tỷ đồng (khoảng 21,7 tỷ USD) tại TP.HCM.Trao đổi với Zing, lãnh đạo Cục Đăng ký Kinh doanh cho biết ngay sau khi nhận được thông báo về trường hợp trên, Cục đã có văn bản gửi Sở KHĐT TP.HCM để yêu cầu rà soát.</t>
+  </si>
+  <si>
+    <t>Theo báo cáo Đổi mới sáng tạo và đầu tư công nghệ Việt Nam 2020 do quỹ Do Ventures và Trung tâm Đổi mới sáng tạo quốc gia Việt Nam (NIC, thuộc Bộ Kế hoạch và Đầu tư) thực hiện, có 105 thương vụ đầu tư vào startup Việt Nam trong năm 2020, đứng thứ 3 tại Đông Nam Á sau Singapore và Indonesia.Con số này giảm 17% so với năm 2019, trong khi tổng số vốn đầu tư giảm đến 48%, chỉ còn 451 triệu USD, xếp thứ 5 khu vực. Nguyên nhân được cho là bởi ảnh hưởng của đại dịch khiến các nhà đầu tư lui về thị trường truyền thống, đồng thời không thể sang Việt Nam tìm hiểu startup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong 10 ngày cuối tháng 5, một loạt doanh nghiệp ra đời do ông Nguyễn Vũ Quốc Anh (36 tuổi, TPHCM) giữ vai trò cổ đông chi phối. Trong đó, một công ty được đăng ký thành lập với số vốn điều lệ 500.000 tỷ đồng, tương đương gần 22 tỷ USD. Doanh nghiệp đặc biệt này là Công ty Cổ phần Tập đoàn Đầu tư Công nghệ Tự động Toàn Cầu (Global Auto Technology Investment Group - GATIG) ra đời ngày 20/5. Trụ sở chính hiện tại của GATIG trên giấy phép ở tòa nhà Bitexco (2 Hải Triều, phường Bến Nghé, quận 1, TPHCM). Ngành nghề chính doanh nghiệp này đăng ký kinh doanh là lập trình máy vi tính. </t>
+  </si>
+  <si>
+    <t>Theo số liệu của Cổng thông tin quốc gia về đăng ký doanh nghiệp, có hai doanh nghiệp vừa được đăng ký thành lập mới thuộc lĩnh vực thông tin và truyền thông tại TP. HCM với số vốn đăng ký đột biến 525 nghìn tỷ đồng.Hai doanh nghiệp này đăng ký thành lập ngày 20/5/2021 và có chung một đại diện theo pháp luật.</t>
+  </si>
+  <si>
+    <t>Đại gia Phương Hằng chưa học hết cấp 3Thời gian qua, bà Phương Hằng - vợ đại gia Dũng "lò vôi" trở thành tâm điểm chú ý của dư luận nhờ những màn livestream thu hút đông đảo người xem.</t>
+  </si>
+  <si>
+    <t>Mua thép lời tiền tỷNếu có số tiền 14 tỷ đồng mà đang gửi ngân hàng với biểu lãi suất không kỳ hạn của ngân hàng MB Bank là 0,1%, và lãi suất có kỳ hạn 6 tháng là 5,1%. Số tiền này quy ra thép thì con số giá trị hiện nay tăng hơn 10 tỷ đồng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,23 +238,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -296,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,27 +320,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,24 +354,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,19 +529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -607,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -621,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -635,24 +586,24 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -663,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -677,192 +628,192 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -870,13 +821,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -884,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -898,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
